--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.35/avg_0.004_scores.xlsx
@@ -46,21 +46,21 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>broke</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
@@ -70,15 +70,15 @@
     <t>smaller</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
     <t>di</t>
   </si>
   <si>
@@ -88,48 +88,51 @@
     <t>plastic</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>thought</t>
+    <t>size</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>size</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>used</t>
   </si>
   <si>
@@ -148,42 +151,36 @@
     <t>2</t>
   </si>
   <si>
-    <t>much</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -196,13 +193,16 @@
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
@@ -638,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K3">
-        <v>0.8153846153846154</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -688,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K4">
-        <v>0.7678571428571429</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -738,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.796875</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K5">
-        <v>0.6881720430107527</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="L5">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M5">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -788,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7526881720430108</v>
+        <v>0.7365591397849462</v>
       </c>
       <c r="C6">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D6">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K6">
-        <v>0.6226415094339622</v>
+        <v>0.5625</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -838,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7027027027027027</v>
+        <v>0.734375</v>
       </c>
       <c r="C7">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K7">
-        <v>0.609375</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6990291262135923</v>
+        <v>0.7281553398058253</v>
       </c>
       <c r="C8">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D8">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K8">
-        <v>0.4492753623188406</v>
+        <v>0.3713114754098361</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>453</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>453</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>38</v>
+        <v>767</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6901408450704225</v>
+        <v>0.6959459459459459</v>
       </c>
       <c r="C9">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="D9">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K9">
-        <v>0.3754098360655738</v>
+        <v>0.321377331420373</v>
       </c>
       <c r="L9">
-        <v>458</v>
+        <v>224</v>
       </c>
       <c r="M9">
-        <v>458</v>
+        <v>224</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>762</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6458333333333334</v>
+        <v>0.6875</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K10">
-        <v>0.3299856527977044</v>
+        <v>0.3008298755186722</v>
       </c>
       <c r="L10">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="M10">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>467</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5818181818181818</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K11">
-        <v>0.3070539419087137</v>
+        <v>0.25</v>
       </c>
       <c r="L11">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>334</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1088,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5378151260504201</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C12">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K12">
-        <v>0.2833333333333333</v>
+        <v>0.2409638554216867</v>
       </c>
       <c r="L12">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M12">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>86</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5370370370370371</v>
+        <v>0.518840579710145</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1156,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K13">
-        <v>0.2079510703363914</v>
+        <v>0.2171253822629969</v>
       </c>
       <c r="L13">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M13">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5304347826086957</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="C14">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="D14">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K14">
-        <v>0.1987951807228916</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L14">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,13 +1238,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4578313253012048</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1256,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K15">
-        <v>0.164021164021164</v>
+        <v>0.1164658634538153</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>158</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1312,25 +1312,25 @@
         <v>63</v>
       </c>
       <c r="K16">
-        <v>0.1104294478527607</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L16">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M16">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>1015</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1338,13 +1338,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4526315789473684</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="C17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1356,31 +1356,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K17">
-        <v>0.05855562784645413</v>
+        <v>0.06627680311890838</v>
       </c>
       <c r="L17">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="M17">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>1447</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1388,13 +1388,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4173228346456693</v>
+        <v>0.4094488188976378</v>
       </c>
       <c r="C18">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1414,13 +1414,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3820224719101123</v>
+        <v>0.3984375</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1440,13 +1440,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3515625</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C20">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1466,13 +1466,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3317535545023697</v>
+        <v>0.3415841584158416</v>
       </c>
       <c r="C21">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1492,13 +1492,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3316831683168317</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C22">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1518,13 +1518,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.264957264957265</v>
+        <v>0.2748815165876777</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>86</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1544,13 +1544,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2427536231884058</v>
+        <v>0.2628865979381443</v>
       </c>
       <c r="C24">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D24">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>209</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1570,13 +1570,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2371134020618557</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C25">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>148</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1596,13 +1596,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.23</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="C26">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>154</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1622,25 +1622,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2278481012658228</v>
+        <v>0.2303120356612184</v>
       </c>
       <c r="C27">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="D27">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>244</v>
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1648,25 +1648,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2232142857142857</v>
+        <v>0.2056962025316456</v>
       </c>
       <c r="C28">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="D28">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="E28">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>522</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1674,13 +1674,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1974522292993631</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="C29">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D29">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>126</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1700,13 +1700,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.189873417721519</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C30">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D30">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>256</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1726,13 +1726,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1875</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C31">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1752,13 +1752,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1718061674008811</v>
+        <v>0.1828193832599119</v>
       </c>
       <c r="C32">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D32">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1778,13 +1778,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1714285714285714</v>
+        <v>0.18</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.170028818443804</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C34">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D34">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E34">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>288</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1401869158878505</v>
+        <v>0.170028818443804</v>
       </c>
       <c r="C35">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>184</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1856,13 +1856,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1290322580645161</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C36">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>216</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1287671232876712</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="C37">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D37">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>318</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1908,13 +1908,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1235955056179775</v>
+        <v>0.1315068493150685</v>
       </c>
       <c r="C38">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D38">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>234</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09534883720930233</v>
+        <v>0.1161048689138577</v>
       </c>
       <c r="C39">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D39">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E39">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>389</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.09014084507042254</v>
+        <v>0.09225700164744646</v>
       </c>
       <c r="C40">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D40">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>323</v>
+        <v>551</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0894854586129754</v>
+        <v>0.08908685968819599</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E41">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.08415841584158416</v>
+        <v>0.08732394366197183</v>
       </c>
       <c r="C42">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D42">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E42">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>555</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2038,13 +2038,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04556962025316456</v>
+        <v>0.04683544303797468</v>
       </c>
       <c r="C43">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D43">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E43">
         <v>0.1</v>
@@ -2056,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
